--- a/05-projects-WebScrapping/08-OLXRealStateFinderBot/aptos.xlsx
+++ b/05-projects-WebScrapping/08-OLXRealStateFinderBot/aptos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>titles</t>
   </si>
@@ -25,12 +25,6 @@
     <t>links</t>
   </si>
   <si>
-    <t>Excelente Apartamento com 04 Quartos localizado na Freguesia- 110m².</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 4 dormitórios cod:33283</t>
-  </si>
-  <si>
     <t>Freguesia lindo apartamento 4 quartos oportunidade única</t>
   </si>
   <si>
@@ -40,10 +34,13 @@
     <t>Apartamento com 4 dormitórios para alugar, 187 m² por R$ 3.200/mês - Freguesia (Jacarepagu</t>
   </si>
   <si>
-    <t>Apartamento</t>
-  </si>
-  <si>
-    <t>Excelente Cobertura 4 qts na Freguesia! DOIS MESES DE DEPÓSITO!!</t>
+    <t>Cobertura para alugar com 4 dormitórios cod:AL1316</t>
+  </si>
+  <si>
+    <t>Alugo Apto 4 Dorms Atelier Tres Rios - Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 4 dormitórios em Freguesia, cod:lc0606101</t>
   </si>
   <si>
     <t>ME. Alugo Cobertura 4 qts, 3 Suítes c/ 187m² na Freguesia!!!!</t>
@@ -55,19 +52,28 @@
     <t xml:space="preserve">Apartamento com 4 dormitórios para alugar, 150 m² por r$ 4.100,00/mês - barra da tijuca - </t>
   </si>
   <si>
+    <t>RGAlugo 4 quartos 211 m2    4500 aluguel</t>
+  </si>
+  <si>
     <t>Cobertura com 4 dormitórios para alugar, 211 m² por R$ 4.500/mês - Freguesia (Jacarepaguá)</t>
   </si>
   <si>
     <t>Cobertura com 4 dormitórios para alugar, 211 m² por R$ 4.500,00/mês - Freguesia (Jacarepag</t>
   </si>
   <si>
+    <t>RG(Village vert) Cobertura com 4 suítes</t>
+  </si>
+  <si>
+    <t>RG(Village vert)  Alugo cobertura na Freguesia</t>
+  </si>
+  <si>
+    <t>Cobertura Freguesia 4 quartos. Village Vert.</t>
+  </si>
+  <si>
     <t>Cobertura com 4 dormitórios, 211 m² - Freguesia (Jacarepaguá) - Rio de Janeiro/RJ</t>
   </si>
   <si>
-    <t>ALUGA COBERTURAS DUPLEX DE 4 QUARTOS COM ATÉ 3 SUÍTES NA ESTRADA DO BANANAL, FREGUESIA.</t>
-  </si>
-  <si>
-    <t>RG(Village vert) Cobertura com 4 suítes</t>
+    <t>ALUGA COBERTURAS DUPLEX DE 4 QUARTOS, SENDO 3 SUÍTES, TERRAÇO COM CHURRASQUEIRA NA ESTRADA</t>
   </si>
   <si>
     <t>Rio de Janeiro, Freguesia (Jacarepaguá)</t>
@@ -76,12 +82,6 @@
     <t>Rio de Janeiro, Jacarepaguá</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apartamento-com-04-quartos-localizado-na-freguesia-110m-903042761</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-4-dormitorios-cod-33283-872015454</t>
-  </si>
-  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-apartamento-4-quartos-oportunidade-unica-881306477</t>
   </si>
   <si>
@@ -91,10 +91,13 @@
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-187-m-por-r-3-200-mes-freguesia-jacarepagu-558973358</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-780770954</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-cobertura-4-qts-na-freguesia-dois-meses-de-deposito-878196023</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-para-alugar-com-4-dormitorios-cod-al1316-914790183</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/alugo-apto-4-dorms-atelier-tres-rios-freguesia-915803418</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-4-dormitorios-em-freguesia-cod-lc0606101-906871992</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/me-alugo-cobertura-4-qts-3-suites-c-187m-na-freguesia-714368468</t>
@@ -106,19 +109,28 @@
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-150-m-por-r-4-100-00-mes-barra-da-tijuca-678716268</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rgalugo-4-quartos-211-m2-4500-aluguel-911397689</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-para-alugar-211-m-por-r-4-500-mes-freguesia-jacarepagua-892378865</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-para-alugar-211-m-por-r-4-500-00-mes-freguesia-jacarepag-884381234</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-vert-cobertura-com-4-suites-856462877</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-vert-alugo-cobertura-na-freguesia-911406048</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-freguesia-4-quartos-village-vert-908601486</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-211-m-freguesia-jacarepagua-rio-de-janeiro-rj-865616471</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluga-coberturas-duplex-de-4-quartos-com-ate-3-suites-na-estrada-do-bananal-freguesia-864698829</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-vert-cobertura-com-4-suites-856462877</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluga-coberturas-duplex-de-4-quartos-sendo-3-suites-terraco-com-churrasqueira-na-estrada-864698829</t>
   </si>
 </sst>
 </file>
@@ -489,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -528,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -542,10 +554,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -556,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -570,10 +582,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -584,10 +596,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -598,10 +610,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -612,10 +624,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -626,10 +638,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -640,10 +652,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -654,10 +666,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -668,10 +680,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -682,10 +694,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -696,10 +708,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -710,10 +722,38 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -733,6 +773,8 @@
     <hyperlink ref="D14" r:id="rId13"/>
     <hyperlink ref="D15" r:id="rId14"/>
     <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05-projects-WebScrapping/08-OLXRealStateFinderBot/aptos.xlsx
+++ b/05-projects-WebScrapping/08-OLXRealStateFinderBot/aptos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
   <si>
     <t>titles</t>
   </si>
@@ -25,6 +25,69 @@
     <t>links</t>
   </si>
   <si>
+    <t>Alugo Apartamento 3 Qts (1 Suíte), Rua Aroazes - Abelardo Bueno</t>
+  </si>
+  <si>
+    <t>Apartamento com 3 dormitórios para alugar, 70 m² por R$ 2.000,00/mês - Barra da Tijuca - R</t>
+  </si>
+  <si>
+    <t>Excelente apt. 03 quartos ( 01 suíte) - Freguesia!</t>
+  </si>
+  <si>
+    <t>Apartamento para Locação em Rio de Janeiro, Freguesia (Jacarepaguá), 3 dormitórios, 1 suít</t>
+  </si>
+  <si>
+    <t>Sala 3 quartos com suíte, condomínio Freedom clube Barra.</t>
+  </si>
+  <si>
+    <t>Apartamento Jacarepaguá - Villas da Barra, 3 quartos</t>
+  </si>
+  <si>
+    <t>Apartamento Jacarepaguá - Villas da Barra, 3 quartos (NBI 006 APP)</t>
+  </si>
+  <si>
+    <t>Apartamento para aluguel e venda na Rua Potiguara, Freguesia</t>
+  </si>
+  <si>
+    <t>Apartamento com 3 dormitórios para alugar, 83 m² por R$ 2.500/mês - Jacarepaguá - Rio de J</t>
+  </si>
+  <si>
+    <t>Apartamento com 03 quartos, 83 m2, Barra Olímpica, Rio de Janeiro, RJ</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro - Apartamento Padrão - Jacarepaguá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento com 3 quartos,  2 vagas na garagem no Condomínio  Bela Vista </t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:RLOC984</t>
+  </si>
+  <si>
+    <t>Barra Olimpica / Rua Arozes / 3 Quartos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluguel - Aroazes </t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:MIA3AP15256</t>
+  </si>
+  <si>
+    <t>Apartamento - FREGUESIA (JACAREPAGUA) - R$ 2.500,00</t>
+  </si>
+  <si>
+    <t>Ressi. Union Home 3Qts 97m² Aluguel e Venda na Barra</t>
+  </si>
+  <si>
+    <t>Locação: Apartamento de 3 quartos, 90m2, sol da manhã, 2 vagas, no Bora Bora Hills</t>
+  </si>
+  <si>
+    <t>3 Quartos / Villas da Barra / Andar alto</t>
+  </si>
+  <si>
+    <t>RG alugo ou vendo linda cobertura com 3 quartos</t>
+  </si>
+  <si>
     <t>Freguesia lindo apartamento 4 quartos oportunidade única</t>
   </si>
   <si>
@@ -34,9 +97,27 @@
     <t>Apartamento com 4 dormitórios para alugar, 187 m² por R$ 3.200/mês - Freguesia (Jacarepagu</t>
   </si>
   <si>
+    <t>RG(BA33696) Alugo apartamento na Barra</t>
+  </si>
+  <si>
+    <t>Excelente Apartamento 2 Quartos(1 Suíte), Mobiliado no Reserva Parque</t>
+  </si>
+  <si>
+    <t>RG(Grand village) cobertura com 3 quartos</t>
+  </si>
+  <si>
     <t>Cobertura para alugar com 4 dormitórios cod:AL1316</t>
   </si>
   <si>
+    <t>RG( Village Florença) Alugo ou vendo cobertura na Freguesia</t>
+  </si>
+  <si>
+    <t>Freguesia, Estr do Bananal, Cond Village Florença, cobertura duplex 3 quartos com total la</t>
+  </si>
+  <si>
+    <t>Apartamento com 3 dormitórios para alugar, 190 m² por R$ 3.500,00/mês - Freguesia (Jacarep</t>
+  </si>
+  <si>
     <t>Alugo Apto 4 Dorms Atelier Tres Rios - Freguesia</t>
   </si>
   <si>
@@ -52,6 +133,9 @@
     <t xml:space="preserve">Apartamento com 4 dormitórios para alugar, 150 m² por r$ 4.100,00/mês - barra da tijuca - </t>
   </si>
   <si>
+    <t>Excelente Cobertura no Village Vert, 02 quartos, Locação</t>
+  </si>
+  <si>
     <t>RGAlugo 4 quartos 211 m2    4500 aluguel</t>
   </si>
   <si>
@@ -76,10 +160,73 @@
     <t>ALUGA COBERTURAS DUPLEX DE 4 QUARTOS, SENDO 3 SUÍTES, TERRAÇO COM CHURRASQUEIRA NA ESTRADA</t>
   </si>
   <si>
+    <t>Rio de Janeiro, Jacarepaguá</t>
+  </si>
+  <si>
     <t>Rio de Janeiro, Freguesia (Jacarepaguá)</t>
   </si>
   <si>
-    <t>Rio de Janeiro, Jacarepaguá</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/alugo-apartamento-3-qts-1-suite-rua-aroazes-abelardo-bueno-918886341</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-70-m-por-r-2-000-00-mes-barra-da-tijuca-r-915504118</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apt-03-quartos-01-suite-freguesia-634868811</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-locacao-em-rio-de-janeiro-freguesia-jacarepagua-3-dormitorios-1-suit-913886960</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/sala-3-quartos-com-suite-condominio-freedom-clube-barra-906028799</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-jacarepagua-villas-da-barra-3-quartos-919124758</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-jacarepagua-villas-da-barra-3-quartos-nbi-006-app-911873931</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-aluguel-e-venda-na-rua-potiguara-freguesia-883314464</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-83-m-por-r-2-500-mes-jacarepagua-rio-de-j-920185663</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-03-quartos-83-m2-barra-olimpica-rio-de-janeiro-rj-906588816</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-de-janeiro-apartamento-padrao-jacarepagua-918166855</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-quartos-2-vagas-na-garagem-no-condominio-bela-vista-914732389</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-rloc984-912682062</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/barra-olimpica-rua-arozes-3-quartos-911744343</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-aroazes-906365501</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-mia3ap15256-873880211</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-jacarepagua-r-2-500-00-722841201</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ressi-union-home-3qts-97m-aluguel-e-venda-na-barra-784774525</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/locacao-apartamento-de-3-quartos-90m2-sol-da-manha-2-vagas-no-bora-bora-hills-915663435</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/3-quartos-villas-da-barra-andar-alto-911933095</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-linda-cobertura-com-3-quartos-771069465</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-apartamento-4-quartos-oportunidade-unica-881306477</t>
@@ -91,9 +238,27 @@
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-187-m-por-r-3-200-mes-freguesia-jacarepagu-558973358</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-ba33696-alugo-apartamento-na-barra-912716682</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apartamento-2-quartos-1-suite-mobiliado-no-reserva-parque-891907861</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-grand-village-cobertura-com-3-quartos-856415396</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-para-alugar-com-4-dormitorios-cod-al1316-914790183</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-florenca-alugo-ou-vendo-cobertura-na-freguesia-771188528</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-estr-do-bananal-cond-village-florenca-cobertura-duplex-3-quartos-com-total-la-780770871</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-190-m-por-r-3-500-00-mes-freguesia-jacarep-558973348</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/alugo-apto-4-dorms-atelier-tres-rios-freguesia-915803418</t>
   </si>
   <si>
@@ -107,6 +272,9 @@
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-150-m-por-r-4-100-00-mes-barra-da-tijuca-678716268</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-cobertura-no-village-vert-02-quartos-locacao-877573304</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rgalugo-4-quartos-211-m2-4500-aluguel-911397689</t>
@@ -501,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +694,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -540,10 +708,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -554,10 +722,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -568,10 +736,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -582,10 +750,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -596,10 +764,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -610,10 +778,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -624,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -638,10 +806,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -652,10 +820,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -666,10 +834,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -680,10 +848,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -694,10 +862,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -708,10 +876,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -722,10 +890,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -736,10 +904,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -750,10 +918,402 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -775,6 +1335,34 @@
     <hyperlink ref="D16" r:id="rId15"/>
     <hyperlink ref="D17" r:id="rId16"/>
     <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05-projects-WebScrapping/08-OLXRealStateFinderBot/aptos.xlsx
+++ b/05-projects-WebScrapping/08-OLXRealStateFinderBot/aptos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
   <si>
     <t>titles</t>
   </si>
@@ -25,130 +25,124 @@
     <t>links</t>
   </si>
   <si>
-    <t>Alugo Apartamento 3 Qts (1 Suíte), Rua Aroazes - Abelardo Bueno</t>
-  </si>
-  <si>
-    <t>Apartamento com 3 dormitórios para alugar, 70 m² por R$ 2.000,00/mês - Barra da Tijuca - R</t>
-  </si>
-  <si>
-    <t>Excelente apt. 03 quartos ( 01 suíte) - Freguesia!</t>
+    <t>Excelente 3 quartos na Freguesia (Jacarepaguá) próximo a Est. do Pau Ferro</t>
+  </si>
+  <si>
+    <t>Alugo lindo ap 3 quartos tirol freguesia 1500</t>
+  </si>
+  <si>
+    <t>Apartamento frente varandão salão porcelanato 3 quartos - Frreguesia</t>
+  </si>
+  <si>
+    <t>Oportunidade na Rua Potiguara</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro - Apartamento Padrão - Freguesia (Jacarepaguá)</t>
+  </si>
+  <si>
+    <t>Apartamento para Locação em Rio de Janeiro, Jacarepaguá, 3 dormitórios, 1 suíte, 3 banhei</t>
+  </si>
+  <si>
+    <t>ALUGA - Freguesia - 3 quartos (1 suíte) - Sol da manhã</t>
+  </si>
+  <si>
+    <t>Lindo Apê de 88m² e 3 Qts Com 1 Suíte na Freguesia - Edifício Green Garden!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento </t>
+  </si>
+  <si>
+    <t>Ótimo Apartamento no Camorim</t>
+  </si>
+  <si>
+    <t>Alugo ou Vendo apartamento de 92m2</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:LIV-20934</t>
+  </si>
+  <si>
+    <t>Apartamento de 3 quartos na Freguesia</t>
+  </si>
+  <si>
+    <t>Cobertura Duplex para Locação em Rio de Janeiro, FREGUESIA, 3 dormitórios, 1 suíte, 3 ban</t>
+  </si>
+  <si>
+    <t>Freguesia - 3 quartos (suíte) - 81m2 - Excelente localização</t>
+  </si>
+  <si>
+    <t>Alugo apt Freguesia 3 quartos</t>
+  </si>
+  <si>
+    <t>RG alugo ou vendo linda cobertura com 3 quartos</t>
+  </si>
+  <si>
+    <t>(ALR21) Cobertura Duplex Semi-Mobilhado - 3 Quartos (1 suíte) - 3 Vagas</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro - Apartamento Padrão - Jacarepaguá</t>
+  </si>
+  <si>
+    <t>RG alugo ou vendo lindo cobertura com 4 quartos</t>
+  </si>
+  <si>
+    <t>Apartamento com 4 dormitórios para alugar, 187 m² por R$ 3.200/mês - Freguesia (Jacarepagu</t>
+  </si>
+  <si>
+    <t>Cobertura para Locação em Rio de Janeiro, Freguesia (Jacarepaguá), 3 dormitórios, 1 suíte,</t>
+  </si>
+  <si>
+    <t>Cobertura Rua Araguaia</t>
+  </si>
+  <si>
+    <t>Aluguel ou Venda  obertura duplex 3 qts - Freguesia!!!</t>
   </si>
   <si>
     <t>Apartamento para Locação em Rio de Janeiro, Freguesia (Jacarepaguá), 3 dormitórios, 1 suít</t>
   </si>
   <si>
-    <t>Sala 3 quartos com suíte, condomínio Freedom clube Barra.</t>
-  </si>
-  <si>
-    <t>Apartamento Jacarepaguá - Villas da Barra, 3 quartos</t>
-  </si>
-  <si>
-    <t>Apartamento Jacarepaguá - Villas da Barra, 3 quartos (NBI 006 APP)</t>
-  </si>
-  <si>
-    <t>Apartamento para aluguel e venda na Rua Potiguara, Freguesia</t>
-  </si>
-  <si>
-    <t>Apartamento com 3 dormitórios para alugar, 83 m² por R$ 2.500/mês - Jacarepaguá - Rio de J</t>
-  </si>
-  <si>
-    <t>Apartamento com 03 quartos, 83 m2, Barra Olímpica, Rio de Janeiro, RJ</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro - Apartamento Padrão - Jacarepaguá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartamento com 3 quartos,  2 vagas na garagem no Condomínio  Bela Vista </t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:RLOC984</t>
-  </si>
-  <si>
-    <t>Barra Olimpica / Rua Arozes / 3 Quartos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aluguel - Aroazes </t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 3 dormitórios em Jacarepaguá, Rio de janeiro cod:MIA3AP15256</t>
-  </si>
-  <si>
-    <t>Apartamento - FREGUESIA (JACAREPAGUA) - R$ 2.500,00</t>
-  </si>
-  <si>
-    <t>Ressi. Union Home 3Qts 97m² Aluguel e Venda na Barra</t>
-  </si>
-  <si>
-    <t>Locação: Apartamento de 3 quartos, 90m2, sol da manhã, 2 vagas, no Bora Bora Hills</t>
-  </si>
-  <si>
-    <t>3 Quartos / Villas da Barra / Andar alto</t>
-  </si>
-  <si>
-    <t>RG alugo ou vendo linda cobertura com 3 quartos</t>
-  </si>
-  <si>
-    <t>Freguesia lindo apartamento 4 quartos oportunidade única</t>
-  </si>
-  <si>
-    <t>RG alugo ou vendo lindo cobertura com 4 quartos</t>
-  </si>
-  <si>
-    <t>Apartamento com 4 dormitórios para alugar, 187 m² por R$ 3.200/mês - Freguesia (Jacarepagu</t>
-  </si>
-  <si>
-    <t>RG(BA33696) Alugo apartamento na Barra</t>
-  </si>
-  <si>
-    <t>Excelente Apartamento 2 Quartos(1 Suíte), Mobiliado no Reserva Parque</t>
-  </si>
-  <si>
-    <t>RG(Grand village) cobertura com 3 quartos</t>
-  </si>
-  <si>
     <t>Cobertura para alugar com 4 dormitórios cod:AL1316</t>
   </si>
   <si>
+    <t>Freguesia, Estr do Bananal, Cond Village Florença, cobertura duplex 3 quartos com total la</t>
+  </si>
+  <si>
     <t>RG( Village Florença) Alugo ou vendo cobertura na Freguesia</t>
   </si>
   <si>
-    <t>Freguesia, Estr do Bananal, Cond Village Florença, cobertura duplex 3 quartos com total la</t>
-  </si>
-  <si>
     <t>Apartamento com 3 dormitórios para alugar, 190 m² por R$ 3.500,00/mês - Freguesia (Jacarep</t>
   </si>
   <si>
-    <t>Alugo Apto 4 Dorms Atelier Tres Rios - Freguesia</t>
-  </si>
-  <si>
-    <t>Apartamento para alugar com 4 dormitórios em Freguesia, cod:lc0606101</t>
-  </si>
-  <si>
-    <t>ME. Alugo Cobertura 4 qts, 3 Suítes c/ 187m² na Freguesia!!!!</t>
-  </si>
-  <si>
     <t>Apartamento com 4 dormitórios para alugar, 187 m² por R$ 4.000,00/mês - Freguesia (Jacarep</t>
   </si>
   <si>
-    <t xml:space="preserve">Apartamento com 4 dormitórios para alugar, 150 m² por r$ 4.100,00/mês - barra da tijuca - </t>
-  </si>
-  <si>
     <t>Excelente Cobertura no Village Vert, 02 quartos, Locação</t>
   </si>
   <si>
-    <t>RGAlugo 4 quartos 211 m2    4500 aluguel</t>
-  </si>
-  <si>
-    <t>Cobertura com 4 dormitórios para alugar, 211 m² por R$ 4.500/mês - Freguesia (Jacarepaguá)</t>
-  </si>
-  <si>
-    <t>Cobertura com 4 dormitórios para alugar, 211 m² por R$ 4.500,00/mês - Freguesia (Jacarepag</t>
-  </si>
-  <si>
-    <t>RG(Village vert) Cobertura com 4 suítes</t>
-  </si>
-  <si>
-    <t>RG(Village vert)  Alugo cobertura na Freguesia</t>
+    <t>Excelente cobertura à venda e para locação,em área nobre Freguesia (Jacarepaguá), Rio de J</t>
+  </si>
+  <si>
+    <t>Apartamento para alugar, 96 m² por R$ 4.500,00/mês - Barra da Tijuca - Rio de Janeiro/RJ</t>
+  </si>
+  <si>
+    <t>Cobertura para aluguel e venda possui 211 metros quadrados com 4 quartos</t>
+  </si>
+  <si>
+    <t>Cobertura para alugar com 4 dormitórios cod:CO0030_MERI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento com 3 dormitórios para alugar, 153 m² por R$ 4.800,00/mês - Barra da Tijuca - </t>
+  </si>
+  <si>
+    <t>Apartamento para Locação em Rio de Janeiro, Freguesia (Jacarepaguá)</t>
+  </si>
+  <si>
+    <t>Cobertura com 4 dormitórios para alugar, 211 m² por R$ 4.950,00/mês - Freguesia (Jacarepag</t>
+  </si>
+  <si>
+    <t>Cobertura para alugar com 4 dormitórios cod:RLCO40010</t>
+  </si>
+  <si>
+    <t>Cobertura para alugar com 4 dormitórios cod:RICO40006</t>
   </si>
   <si>
     <t>Cobertura Freguesia 4 quartos. Village Vert.</t>
@@ -157,79 +151,76 @@
     <t>Cobertura com 4 dormitórios, 211 m² - Freguesia (Jacarepaguá) - Rio de Janeiro/RJ</t>
   </si>
   <si>
-    <t>ALUGA COBERTURAS DUPLEX DE 4 QUARTOS, SENDO 3 SUÍTES, TERRAÇO COM CHURRASQUEIRA NA ESTRADA</t>
+    <t>ALUGA COBERTURA DUPLEX DE 4 QUARTOS, SENDO 1 SUÍTE, TERRAÇO COM CHURRASQUEIRA NA ESTRADA D</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Freguesia (Jacarepaguá)</t>
   </si>
   <si>
     <t>Rio de Janeiro, Jacarepaguá</t>
   </si>
   <si>
-    <t>Rio de Janeiro, Freguesia (Jacarepaguá)</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/alugo-apartamento-3-qts-1-suite-rua-aroazes-abelardo-bueno-918886341</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-70-m-por-r-2-000-00-mes-barra-da-tijuca-r-915504118</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apt-03-quartos-01-suite-freguesia-634868811</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-locacao-em-rio-de-janeiro-freguesia-jacarepagua-3-dormitorios-1-suit-913886960</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/sala-3-quartos-com-suite-condominio-freedom-clube-barra-906028799</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-jacarepagua-villas-da-barra-3-quartos-919124758</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-jacarepagua-villas-da-barra-3-quartos-nbi-006-app-911873931</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-aluguel-e-venda-na-rua-potiguara-freguesia-883314464</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-83-m-por-r-2-500-mes-jacarepagua-rio-de-j-920185663</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-03-quartos-83-m2-barra-olimpica-rio-de-janeiro-rj-906588816</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-de-janeiro-apartamento-padrao-jacarepagua-918166855</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-quartos-2-vagas-na-garagem-no-condominio-bela-vista-914732389</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-rloc984-912682062</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/barra-olimpica-rua-arozes-3-quartos-911744343</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-aroazes-906365501</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-mia3ap15256-873880211</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-freguesia-jacarepagua-r-2-500-00-722841201</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/ressi-union-home-3qts-97m-aluguel-e-venda-na-barra-784774525</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/locacao-apartamento-de-3-quartos-90m2-sol-da-manha-2-vagas-no-bora-bora-hills-915663435</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/3-quartos-villas-da-barra-andar-alto-911933095</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-3-quartos-na-freguesia-jacarepagua-proximo-a-est-do-pau-ferro-928728967</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/alugo-lindo-ap-3-quartos-tirol-freguesia-1500-795099404</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-frente-varandao-salao-porcelanato-3-quartos-frreguesia-976294861</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/oportunidade-na-rua-potiguara-947876560</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-de-janeiro-apartamento-padrao-freguesia-jacarepagua-938126904</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-locacao-em-rio-de-janeiro-jacarepagua-3-dormitorios-1-suite-3-banhei-951759716</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluga-freguesia-3-quartos-1-suite-sol-da-manha-934681444</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-de-janeiro-apartamento-padrao-freguesia-jacarepagua-976534815</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/lindo-ape-de-88m-e-3-qts-com-1-suite-na-freguesia-edificio-green-garden-879547988</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-de-janeiro-apartamento-padrao-freguesia-jacarepagua-938117699</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-976913703</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/otimo-apartamento-no-camorim-967375144</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/alugo-ou-vendo-apartamento-de-92m2-965821685</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-3-dormitorios-em-jacarepagua-rio-de-janeiro-cod-liv-20934-961635017</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-de-3-quartos-na-freguesia-882814696</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-duplex-para-locacao-em-rio-de-janeiro-freguesia-3-dormitorios-1-suite-3-ban-976260235</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-3-quartos-suite-81m2-excelente-localizacao-961635099</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/alugo-apt-freguesia-3-quartos-950488619</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-linda-cobertura-com-3-quartos-771069465</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-lindo-apartamento-4-quartos-oportunidade-unica-881306477</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/alr21-cobertura-duplex-semi-mobilhado-3-quartos-1-suite-3-vagas-935308514</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-de-janeiro-apartamento-padrao-jacarepagua-967069248</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-alugo-ou-vendo-lindo-cobertura-com-4-quartos-771072160</t>
@@ -238,58 +229,70 @@
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-187-m-por-r-3-200-mes-freguesia-jacarepagu-558973358</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-ba33696-alugo-apartamento-na-barra-912716682</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-apartamento-2-quartos-1-suite-mobiliado-no-reserva-parque-891907861</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-grand-village-cobertura-com-3-quartos-856415396</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-para-locacao-em-rio-de-janeiro-freguesia-jacarepagua-3-dormitorios-1-suite-977108595</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-rua-araguaia-976880003</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluguel-ou-venda-obertura-duplex-3-qts-freguesia-975122342</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-locacao-em-rio-de-janeiro-freguesia-jacarepagua-3-dormitorios-1-suit-974204127</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-de-janeiro-apartamento-padrao-jacarepagua-963695605</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-para-alugar-com-4-dormitorios-cod-al1316-914790183</t>
   </si>
   <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-estr-do-bananal-cond-village-florenca-cobertura-duplex-3-quartos-com-total-la-780770871</t>
+  </si>
+  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-florenca-alugo-ou-vendo-cobertura-na-freguesia-771188528</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/freguesia-estr-do-bananal-cond-village-florenca-cobertura-duplex-3-quartos-com-total-la-780770871</t>
-  </si>
-  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-190-m-por-r-3-500-00-mes-freguesia-jacarep-558973348</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/alugo-apto-4-dorms-atelier-tres-rios-freguesia-915803418</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-com-4-dormitorios-em-freguesia-cod-lc0606101-906871992</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/me-alugo-cobertura-4-qts-3-suites-c-187m-na-freguesia-714368468</t>
-  </si>
-  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-187-m-por-r-4-000-00-mes-freguesia-jacarep-558973372</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-4-dormitorios-para-alugar-150-m-por-r-4-100-00-mes-barra-da-tijuca-678716268</t>
-  </si>
-  <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-cobertura-no-village-vert-02-quartos-locacao-877573304</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rgalugo-4-quartos-211-m2-4500-aluguel-911397689</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-para-alugar-211-m-por-r-4-500-mes-freguesia-jacarepagua-892378865</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-para-alugar-211-m-por-r-4-500-00-mes-freguesia-jacarepag-884381234</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-vert-cobertura-com-4-suites-856462877</t>
-  </si>
-  <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rg-village-vert-alugo-cobertura-na-freguesia-911406048</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-de-janeiro-apartamento-padrao-freguesia-jacarepagua-938101982</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/excelente-cobertura-a-venda-e-para-locacao-em-area-nobre-freguesia-jacarepagua-rio-de-j-976820636</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-alugar-96-m-por-r-4-500-00-mes-barra-da-tijuca-rio-de-janeiro-rj-973709214</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-para-aluguel-e-venda-possui-211-metros-quadrados-com-4-quartos-935937724</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-para-alugar-com-4-dormitorios-cod-co0030-meri-965603872</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/rio-de-janeiro-apartamento-padrao-freguesia-jacarepagua-942208442</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-com-3-dormitorios-para-alugar-153-m-por-r-4-800-00-mes-barra-da-tijuca-970555410</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/apartamento-para-locacao-em-rio-de-janeiro-freguesia-jacarepagua-954742929</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-para-alugar-211-m-por-r-4-950-00-mes-freguesia-jacarepag-969447526</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-para-alugar-com-4-dormitorios-cod-rlco40010-937165058</t>
+  </si>
+  <si>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-para-alugar-com-4-dormitorios-cod-rico40006-942066916</t>
   </si>
   <si>
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-freguesia-4-quartos-village-vert-908601486</t>
@@ -298,7 +301,7 @@
     <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/cobertura-com-4-dormitorios-211-m-freguesia-jacarepagua-rio-de-janeiro-rj-865616471</t>
   </si>
   <si>
-    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluga-coberturas-duplex-de-4-quartos-sendo-3-suites-terraco-com-churrasqueira-na-estrada-864698829</t>
+    <t>https://rj.olx.com.br/rio-de-janeiro-e-regiao/imoveis/aluga-cobertura-duplex-de-4-quartos-sendo-1-suite-terraco-com-churrasqueira-na-estrada-d-864698829</t>
   </si>
 </sst>
 </file>
@@ -669,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,10 +697,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -708,10 +711,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -722,10 +725,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -736,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -750,10 +753,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -764,10 +767,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -778,10 +781,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -789,13 +792,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -803,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -817,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -831,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -845,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -859,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -873,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -887,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -901,13 +904,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -915,13 +918,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -929,13 +932,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -943,13 +946,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -957,13 +960,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -971,13 +974,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -985,13 +988,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -999,13 +1002,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1013,13 +1016,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1027,13 +1030,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1041,13 +1044,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1055,13 +1058,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1069,13 +1072,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1083,13 +1086,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1097,13 +1100,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1111,13 +1114,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1125,13 +1128,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1139,13 +1142,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1153,13 +1156,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1167,13 +1170,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1181,13 +1184,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1195,13 +1198,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1209,13 +1212,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1223,13 +1226,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1237,13 +1240,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1251,13 +1254,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1265,13 +1268,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1279,13 +1282,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1293,13 +1296,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1307,13 +1310,55 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="C46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>94</v>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1363,6 +1408,9 @@
     <hyperlink ref="D44" r:id="rId43"/>
     <hyperlink ref="D45" r:id="rId44"/>
     <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
